--- a/data/pitcher_data/2022_era_data.xlsx
+++ b/data/pitcher_data/2022_era_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C872"/>
+  <dimension ref="A1:C886"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11768,6 +11768,188 @@
         <v>5.99</v>
       </c>
     </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>carl edwards</t>
+        </is>
+      </c>
+      <c r="C873" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>daniel lynch</t>
+        </is>
+      </c>
+      <c r="C874" t="n">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>duane underwood</t>
+        </is>
+      </c>
+      <c r="C875" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>874</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>frank german</t>
+        </is>
+      </c>
+      <c r="C876" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>j.t. chargois</t>
+        </is>
+      </c>
+      <c r="C877" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>jaime barría</t>
+        </is>
+      </c>
+      <c r="C878" t="n">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>877</v>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>lance mccullers</t>
+        </is>
+      </c>
+      <c r="C879" t="n">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>mark leiter</t>
+        </is>
+      </c>
+      <c r="C880" t="n">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>879</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>matt boyd</t>
+        </is>
+      </c>
+      <c r="C881" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>mike king</t>
+        </is>
+      </c>
+      <c r="C882" t="n">
+        <v>2.29</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="n">
+        <v>881</v>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>néstor cortés</t>
+        </is>
+      </c>
+      <c r="C883" t="n">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>882</v>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>nick martínez</t>
+        </is>
+      </c>
+      <c r="C884" t="n">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>883</v>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>travis lakins</t>
+        </is>
+      </c>
+      <c r="C885" t="n">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>884</v>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>vladimir gutiérrez</t>
+        </is>
+      </c>
+      <c r="C886" t="n">
+        <v>7.61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
